--- a/defects/BugList-V1_0.xlsx
+++ b/defects/BugList-V1_0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\PigTrax\git-repo\src\defects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Bug Number</t>
   </si>
@@ -74,19 +79,6 @@
   </si>
   <si>
     <t>Barn Entry Screen - Water Access Count can only be a whole number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barn Entry Screen -  Barn ID should not impose a restriction on the length - 4 character and the screen needs to state the rule there. I tried to add a new Barn with 5 characters, it bombed on the DB level but there was no error message shown to the user.
-1. The field needs to be restricted to 4 charactrs. It needs to be stated on the GUI.
-2. Any error on submission needs to be flagged to the user in the UI. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premise entry screen - Premise ID should not impose a restriction on the length -2 character and the screen needs to state the rule there. I tried to add a new premise with 4 characters, it bombed on the DB level but there was no error message shown to the user.
-1. The field needs to be restricted to 2 charactrs. It needs to be stated on the GUI.
-2. Any error on submission needs to be flagged to the user in the UI. </t>
-  </si>
-  <si>
-    <t>Room Edit pop up - I cannot edit Location. It is giving me only alphanumeric values allowed. Need to be fixed</t>
   </si>
   <si>
     <t>Length of PenId in the schema needs to be changed to 18. It is 14 in there an I cannot add a new Pen as all 14 are consumed by Ids before it (Company + Pre + Barn+ Room)</t>
@@ -195,7 +187,42 @@
     <t>fixed</t>
   </si>
   <si>
-    <t>Fixed</t>
+    <r>
+      <t xml:space="preserve">Area is taking only integers. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IT NEEDS TO BE DOUBLE. Please make changes as stated in the original comment.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Barn Entry Screen -  Barn ID should  impose a restriction on the length - 4 character and the screen needs to state the rule there. I tried to add a new Barn with 5 characters, it bombed on the DB level but there was no error message shown to the user.
+1. The field needs to be restricted to 4 charactrs. It needs to be stated on the GUI.
+2. Any error on submission needs to be flagged to the user in the UI. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premise entry screen - Premise ID should impose a restriction on the length -2 character and the screen needs to state the rule there. I tried to add a new premise with 4 characters, it bombed on the DB level but there was no error message shown to the user.
+1. The field needs to be restricted to 2 charactrs. It needs to be stated on the GUI.
+2. Any error on submission needs to be flagged to the user in the UI. </t>
+  </si>
+  <si>
+    <t>Still a bug</t>
+  </si>
+  <si>
+    <t>Room Edit pop up - I cannot edit Location. It is giving me only alphanumeric values allowed. Needs to be any character. Same applies for Pen too.</t>
+  </si>
+  <si>
+    <t>The Place holder labels for various things like table headers are not in place. Drop Downs are fixed. But labels/table/column headers arent.</t>
+  </si>
+  <si>
+    <t>This looks fixed to me…or more work needs to be done? Reason I ask is because the status is still red in here.</t>
   </si>
 </sst>
 </file>
@@ -234,7 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,17 +568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,11 +591,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,7 +635,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -625,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -636,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -648,7 +675,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -662,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -671,10 +698,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -687,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +726,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +739,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -718,9 +748,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -730,6 +760,9 @@
         <v>14</v>
       </c>
       <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -738,7 +771,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -747,52 +780,58 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/defects/BugList-V1_0.xlsx
+++ b/defects/BugList-V1_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Freelance Projects\PigTrax\pigtrax\defects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\PigTrax\git-repo\master\pigtrax\defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Bug Number</t>
   </si>
@@ -224,6 +224,15 @@
   <si>
     <t>This looks fixed to me…or more work needs to be done? Reason I ask is because the status is still red in here.
 [Vidya] : Yes, I missed to change the color</t>
+  </si>
+  <si>
+    <t>PigInfo - Pen drop down is not populated with pens as they are being populated for Barn</t>
+  </si>
+  <si>
+    <t>BreedingEvent - There should be an option to search by PigId/tattooId</t>
+  </si>
+  <si>
+    <t>BreedingEvent</t>
   </si>
 </sst>
 </file>
@@ -247,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,6 +302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,6 +736,34 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -727,7 +775,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
